--- a/data/bgm_combined_results_df_250203_part1.xlsx
+++ b/data/bgm_combined_results_df_250203_part1.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiyuantao/Desktop/Mac科研/experiment/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15820983-0FAD-654A-A0F6-5EAED505CF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="bgm_combined_results_df_250203_" sheetId="1" r:id="rId4"/>
+    <sheet name="bgm_combined_results_df_250203_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FsFgY/86QJ3i+6rbHfZLZ1wasLRFv1HJYkD/9LkP4hU="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1655">
   <si>
     <t>sid</t>
   </si>
@@ -4951,28 +4960,79 @@
   </si>
   <si>
     <t>http://kling-mp4-us.oss-us-west-1.aliyuncs.com/465_bgm_2.mp4?OSSAccessKeyId=LTAI5tGhKeyY9jJE8ncCTyfv&amp;Expires=1778795433&amp;Signature=5HaO5hVb%2FJ66uP9yP84mJ3fu6Q0%3D</t>
+  </si>
+  <si>
+    <t>Condition_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition_1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lB4djJS7Psw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DeDxISj455s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9JLQJWD6D6U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zXTtrroIVfY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VCo3AeoWLhs</t>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4980,39 +5040,56 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -5202,23 +5279,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="J239" sqref="J239"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col min="1" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5250,9 +5329,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -5282,9 +5361,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -5314,9 +5393,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -5346,9 +5425,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -5378,9 +5457,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -5410,9 +5489,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -5442,9 +5521,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -5474,9 +5553,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -5506,9 +5585,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -5538,9 +5617,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -5570,9 +5649,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -5602,9 +5681,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -5634,9 +5713,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -5666,9 +5745,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
@@ -5698,9 +5777,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -5730,9 +5809,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -5762,9 +5841,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -5794,9 +5873,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -5826,9 +5905,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -5858,9 +5937,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
@@ -5890,9 +5969,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -5922,9 +6001,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
@@ -5954,9 +6033,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
@@ -5986,9 +6065,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>19</v>
@@ -6018,9 +6097,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
@@ -6050,9 +6129,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
@@ -6082,9 +6161,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>19</v>
@@ -6114,9 +6193,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -6146,9 +6225,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
@@ -6178,9 +6257,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
@@ -6210,9 +6289,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>19</v>
@@ -6242,9 +6321,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
@@ -6274,9 +6353,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>19</v>
@@ -6306,9 +6385,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>19</v>
@@ -6338,9 +6417,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>19</v>
@@ -6370,9 +6449,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>19</v>
@@ -6402,9 +6481,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>19</v>
@@ -6434,9 +6513,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>19</v>
@@ -6466,9 +6545,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>19</v>
@@ -6498,9 +6577,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
+    <row r="41" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>19</v>
@@ -6530,9 +6609,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>19</v>
@@ -6562,9 +6641,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
+    <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>19</v>
@@ -6594,9 +6673,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
+    <row r="44" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>19</v>
@@ -6626,9 +6705,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>19</v>
@@ -6658,9 +6737,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
+    <row r="46" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>19</v>
@@ -6690,9 +6769,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
+    <row r="47" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>19</v>
@@ -6722,9 +6801,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
+    <row r="48" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>19</v>
@@ -6754,9 +6833,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
+    <row r="49" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>19</v>
@@ -6786,9 +6865,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
+    <row r="50" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>19</v>
@@ -6818,9 +6897,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
+    <row r="51" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>19</v>
@@ -6850,9 +6929,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" ht="13.5" customHeight="1">
+    <row r="52" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>19</v>
@@ -6882,9 +6961,9 @@
         <v>369</v>
       </c>
     </row>
-    <row r="53" ht="13.5" customHeight="1">
+    <row r="53" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>19</v>
@@ -6914,9 +6993,9 @@
         <v>376</v>
       </c>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
+    <row r="54" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>19</v>
@@ -6946,9 +7025,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
+    <row r="55" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>19</v>
@@ -6978,9 +7057,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
+    <row r="56" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>19</v>
@@ -7010,9 +7089,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>19</v>
@@ -7042,9 +7121,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
+    <row r="58" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>19</v>
@@ -7074,9 +7153,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>19</v>
@@ -7106,9 +7185,9 @@
         <v>418</v>
       </c>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>19</v>
@@ -7138,9 +7217,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
+    <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>19</v>
@@ -7170,9 +7249,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
+    <row r="62" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>19</v>
@@ -7202,9 +7281,9 @@
         <v>439</v>
       </c>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
+    <row r="63" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>19</v>
@@ -7234,9 +7313,9 @@
         <v>446</v>
       </c>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
+    <row r="64" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>19</v>
@@ -7266,9 +7345,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
+    <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>19</v>
@@ -7298,9 +7377,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
+    <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>19</v>
@@ -7330,9 +7409,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
+    <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>19</v>
@@ -7362,9 +7441,9 @@
         <v>474</v>
       </c>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
+    <row r="68" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>19</v>
@@ -7394,9 +7473,9 @@
         <v>481</v>
       </c>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
+    <row r="69" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>19</v>
@@ -7426,9 +7505,9 @@
         <v>488</v>
       </c>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
+    <row r="70" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>19</v>
@@ -7458,9 +7537,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
+    <row r="71" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>19</v>
@@ -7490,9 +7569,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>19</v>
@@ -7522,9 +7601,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>19</v>
@@ -7554,9 +7633,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>19</v>
@@ -7586,9 +7665,9 @@
         <v>523</v>
       </c>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
+    <row r="75" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>19</v>
@@ -7618,9 +7697,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
+    <row r="76" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>19</v>
@@ -7650,9 +7729,9 @@
         <v>537</v>
       </c>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
+    <row r="77" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>19</v>
@@ -7682,9 +7761,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>19</v>
@@ -7714,9 +7793,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
+    <row r="79" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>19</v>
@@ -7746,9 +7825,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
+    <row r="80" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>19</v>
@@ -7778,9 +7857,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
+    <row r="81" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>19</v>
@@ -7810,9 +7889,9 @@
         <v>572</v>
       </c>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
+    <row r="82" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>19</v>
@@ -7842,9 +7921,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
+    <row r="83" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>19</v>
@@ -7874,9 +7953,9 @@
         <v>586</v>
       </c>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
+    <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>19</v>
@@ -7906,9 +7985,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
+    <row r="85" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>19</v>
@@ -7938,9 +8017,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
+    <row r="86" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>19</v>
@@ -7970,9 +8049,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
+    <row r="87" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>19</v>
@@ -8002,9 +8081,9 @@
         <v>614</v>
       </c>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
+    <row r="88" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>19</v>
@@ -8034,9 +8113,9 @@
         <v>621</v>
       </c>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
+    <row r="89" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>19</v>
@@ -8066,9 +8145,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
+    <row r="90" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>19</v>
@@ -8098,9 +8177,9 @@
         <v>635</v>
       </c>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
+    <row r="91" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>19</v>
@@ -8130,9 +8209,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
+    <row r="92" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>19</v>
@@ -8162,9 +8241,9 @@
         <v>649</v>
       </c>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
+    <row r="93" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>19</v>
@@ -8194,9 +8273,9 @@
         <v>656</v>
       </c>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
+    <row r="94" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>19</v>
@@ -8226,9 +8305,9 @@
         <v>663</v>
       </c>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
+    <row r="95" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>19</v>
@@ -8258,9 +8337,9 @@
         <v>670</v>
       </c>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
+    <row r="96" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>19</v>
@@ -8290,9 +8369,9 @@
         <v>677</v>
       </c>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
+    <row r="97" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>19</v>
@@ -8322,9 +8401,9 @@
         <v>684</v>
       </c>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
+    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>19</v>
@@ -8354,9 +8433,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
+    <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>19</v>
@@ -8386,9 +8465,9 @@
         <v>698</v>
       </c>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
+    <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>19</v>
@@ -8418,9 +8497,9 @@
         <v>705</v>
       </c>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
+    <row r="101" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>19</v>
@@ -8450,9 +8529,9 @@
         <v>712</v>
       </c>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
+    <row r="102" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>19</v>
@@ -8482,9 +8561,9 @@
         <v>719</v>
       </c>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
+    <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>19</v>
@@ -8514,9 +8593,9 @@
         <v>726</v>
       </c>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
+    <row r="104" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>19</v>
@@ -8546,9 +8625,9 @@
         <v>733</v>
       </c>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
+    <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>19</v>
@@ -8578,9 +8657,9 @@
         <v>740</v>
       </c>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
+    <row r="106" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>19</v>
@@ -8610,9 +8689,9 @@
         <v>747</v>
       </c>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
+    <row r="107" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>19</v>
@@ -8642,9 +8721,9 @@
         <v>754</v>
       </c>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
+    <row r="108" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>19</v>
@@ -8674,9 +8753,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
+    <row r="109" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>19</v>
@@ -8706,9 +8785,9 @@
         <v>768</v>
       </c>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
+    <row r="110" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>19</v>
@@ -8738,9 +8817,9 @@
         <v>775</v>
       </c>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
+    <row r="111" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>19</v>
@@ -8770,9 +8849,9 @@
         <v>782</v>
       </c>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
+    <row r="112" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>19</v>
@@ -8802,9 +8881,9 @@
         <v>789</v>
       </c>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
+    <row r="113" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>344.0</v>
+        <v>344</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>19</v>
@@ -8834,9 +8913,9 @@
         <v>796</v>
       </c>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
+    <row r="114" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>19</v>
@@ -8866,9 +8945,9 @@
         <v>803</v>
       </c>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
+    <row r="115" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>19</v>
@@ -8898,9 +8977,9 @@
         <v>810</v>
       </c>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
+    <row r="116" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>347.0</v>
+        <v>347</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>19</v>
@@ -8930,9 +9009,9 @@
         <v>817</v>
       </c>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
+    <row r="117" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>19</v>
@@ -8962,9 +9041,9 @@
         <v>824</v>
       </c>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
+    <row r="118" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>19</v>
@@ -8994,9 +9073,9 @@
         <v>831</v>
       </c>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
+    <row r="119" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>19</v>
@@ -9026,9 +9105,9 @@
         <v>838</v>
       </c>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
+    <row r="120" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>19</v>
@@ -9058,9 +9137,9 @@
         <v>845</v>
       </c>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
+    <row r="121" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>19</v>
@@ -9090,9 +9169,9 @@
         <v>852</v>
       </c>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
+    <row r="122" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>353.0</v>
+        <v>353</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>19</v>
@@ -9122,9 +9201,9 @@
         <v>859</v>
       </c>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
+    <row r="123" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>354.0</v>
+        <v>354</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>19</v>
@@ -9154,9 +9233,9 @@
         <v>866</v>
       </c>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
+    <row r="124" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>19</v>
@@ -9186,9 +9265,9 @@
         <v>873</v>
       </c>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
+    <row r="125" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>19</v>
@@ -9218,9 +9297,9 @@
         <v>880</v>
       </c>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
+    <row r="126" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>19</v>
@@ -9250,9 +9329,9 @@
         <v>887</v>
       </c>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
+    <row r="127" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>358.0</v>
+        <v>358</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>19</v>
@@ -9282,9 +9361,9 @@
         <v>894</v>
       </c>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
+    <row r="128" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>359.0</v>
+        <v>359</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>19</v>
@@ -9314,9 +9393,9 @@
         <v>901</v>
       </c>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
+    <row r="129" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>19</v>
@@ -9346,9 +9425,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
+    <row r="130" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>19</v>
@@ -9378,9 +9457,9 @@
         <v>915</v>
       </c>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
+    <row r="131" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>19</v>
@@ -9410,9 +9489,9 @@
         <v>922</v>
       </c>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
+    <row r="132" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>363.0</v>
+        <v>363</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>19</v>
@@ -9442,9 +9521,9 @@
         <v>929</v>
       </c>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
+    <row r="133" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>19</v>
@@ -9474,9 +9553,9 @@
         <v>936</v>
       </c>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
+    <row r="134" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>19</v>
@@ -9506,9 +9585,9 @@
         <v>943</v>
       </c>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
+    <row r="135" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>19</v>
@@ -9538,9 +9617,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
+    <row r="136" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>367.0</v>
+        <v>367</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>19</v>
@@ -9570,9 +9649,9 @@
         <v>957</v>
       </c>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
+    <row r="137" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>19</v>
@@ -9602,9 +9681,9 @@
         <v>964</v>
       </c>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
+    <row r="138" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>369.0</v>
+        <v>369</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>19</v>
@@ -9634,9 +9713,9 @@
         <v>971</v>
       </c>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
+    <row r="139" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>19</v>
@@ -9666,9 +9745,9 @@
         <v>978</v>
       </c>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
+    <row r="140" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>19</v>
@@ -9698,9 +9777,9 @@
         <v>985</v>
       </c>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
+    <row r="141" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>372.0</v>
+        <v>372</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>19</v>
@@ -9730,9 +9809,9 @@
         <v>992</v>
       </c>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
+    <row r="142" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>373.0</v>
+        <v>373</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>19</v>
@@ -9762,9 +9841,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
+    <row r="143" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>19</v>
@@ -9794,9 +9873,9 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
+    <row r="144" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>19</v>
@@ -9826,9 +9905,9 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
+    <row r="145" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>376.0</v>
+        <v>376</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>19</v>
@@ -9858,9 +9937,9 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
+    <row r="146" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>377.0</v>
+        <v>377</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>19</v>
@@ -9890,9 +9969,9 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
+    <row r="147" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>378.0</v>
+        <v>378</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>19</v>
@@ -9922,9 +10001,9 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
+    <row r="148" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>379.0</v>
+        <v>379</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>19</v>
@@ -9954,9 +10033,9 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
+    <row r="149" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>19</v>
@@ -9986,9 +10065,9 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
+    <row r="150" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>381.0</v>
+        <v>381</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>19</v>
@@ -10018,9 +10097,9 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
+    <row r="151" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>19</v>
@@ -10050,9 +10129,9 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
+    <row r="152" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>383.0</v>
+        <v>383</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>19</v>
@@ -10082,9 +10161,9 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
+    <row r="153" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>19</v>
@@ -10114,9 +10193,9 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>19</v>
@@ -10146,9 +10225,9 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>386.0</v>
+        <v>386</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>19</v>
@@ -10178,9 +10257,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>19</v>
@@ -10210,9 +10289,9 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>19</v>
@@ -10242,9 +10321,9 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>389.0</v>
+        <v>389</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>19</v>
@@ -10274,9 +10353,9 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>19</v>
@@ -10306,9 +10385,9 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>19</v>
@@ -10338,9 +10417,9 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>392.0</v>
+        <v>392</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>19</v>
@@ -10370,9 +10449,9 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>19</v>
@@ -10402,9 +10481,9 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>19</v>
@@ -10434,9 +10513,9 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>19</v>
@@ -10466,9 +10545,9 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>396.0</v>
+        <v>396</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>19</v>
@@ -10498,9 +10577,9 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>397.0</v>
+        <v>397</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>19</v>
@@ -10530,9 +10609,9 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>19</v>
@@ -10562,9 +10641,9 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>399.0</v>
+        <v>399</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>19</v>
@@ -10594,9 +10673,9 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>19</v>
@@ -10626,9 +10705,9 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>401.0</v>
+        <v>401</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>19</v>
@@ -10658,9 +10737,9 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>19</v>
@@ -10690,9 +10769,9 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>403.0</v>
+        <v>403</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>19</v>
@@ -10722,9 +10801,9 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>404.0</v>
+        <v>404</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>19</v>
@@ -10754,9 +10833,9 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>19</v>
@@ -10786,9 +10865,9 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>406.0</v>
+        <v>406</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>19</v>
@@ -10818,9 +10897,9 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>407.0</v>
+        <v>407</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>19</v>
@@ -10850,9 +10929,9 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>19</v>
@@ -10882,9 +10961,9 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>19</v>
@@ -10914,9 +10993,9 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>19</v>
@@ -10946,9 +11025,9 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>19</v>
@@ -10978,9 +11057,9 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>19</v>
@@ -11010,9 +11089,9 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>19</v>
@@ -11042,9 +11121,9 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>19</v>
@@ -11074,9 +11153,9 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>19</v>
@@ -11106,9 +11185,9 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>19</v>
@@ -11138,9 +11217,9 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>417.0</v>
+        <v>417</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>19</v>
@@ -11170,9 +11249,9 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>418.0</v>
+        <v>418</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>19</v>
@@ -11202,9 +11281,9 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>19</v>
@@ -11234,9 +11313,9 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>19</v>
@@ -11266,9 +11345,9 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>19</v>
@@ -11298,9 +11377,9 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>19</v>
@@ -11330,9 +11409,9 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>19</v>
@@ -11362,9 +11441,9 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>424.0</v>
+        <v>424</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>19</v>
@@ -11394,9 +11473,9 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>19</v>
@@ -11426,9 +11505,9 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>426.0</v>
+        <v>426</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>19</v>
@@ -11458,9 +11537,9 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>427.0</v>
+        <v>427</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>19</v>
@@ -11490,9 +11569,9 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>428.0</v>
+        <v>428</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>19</v>
@@ -11522,9 +11601,9 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>19</v>
@@ -11554,9 +11633,9 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
+    <row r="199" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>19</v>
@@ -11586,9 +11665,9 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
+    <row r="200" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>431.0</v>
+        <v>431</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>19</v>
@@ -11618,9 +11697,9 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
+    <row r="201" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>19</v>
@@ -11650,9 +11729,9 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
+    <row r="202" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>433.0</v>
+        <v>433</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>19</v>
@@ -11682,9 +11761,9 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
+    <row r="203" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>434.0</v>
+        <v>434</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>19</v>
@@ -11714,9 +11793,9 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
+    <row r="204" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>19</v>
@@ -11746,9 +11825,9 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
+    <row r="205" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>436.0</v>
+        <v>436</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>19</v>
@@ -11778,9 +11857,9 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
+    <row r="206" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>19</v>
@@ -11810,9 +11889,9 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
+    <row r="207" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>19</v>
@@ -11842,9 +11921,9 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
+    <row r="208" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>439.0</v>
+        <v>439</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>19</v>
@@ -11874,9 +11953,9 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>19</v>
@@ -11906,9 +11985,9 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
+    <row r="210" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>19</v>
@@ -11938,9 +12017,9 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
+    <row r="211" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>19</v>
@@ -11970,9 +12049,9 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
+    <row r="212" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>19</v>
@@ -12002,9 +12081,9 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
+    <row r="213" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>19</v>
@@ -12034,9 +12113,9 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
+    <row r="214" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>19</v>
@@ -12066,9 +12145,9 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
+    <row r="215" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>19</v>
@@ -12098,9 +12177,9 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>447.0</v>
+        <v>447</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>19</v>
@@ -12130,9 +12209,9 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>448.0</v>
+        <v>448</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>19</v>
@@ -12162,9 +12241,9 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>449.0</v>
+        <v>449</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>19</v>
@@ -12194,9 +12273,9 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>1532</v>
@@ -12226,9 +12305,9 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>451.0</v>
+        <v>451</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>1532</v>
@@ -12258,9 +12337,9 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="221" ht="13.5" customHeight="1">
+    <row r="221" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>452.0</v>
+        <v>452</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>1532</v>
@@ -12290,9 +12369,9 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="222" ht="13.5" customHeight="1">
+    <row r="222" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>453.0</v>
+        <v>453</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>1532</v>
@@ -12322,9 +12401,9 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="223" ht="13.5" customHeight="1">
+    <row r="223" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>1532</v>
@@ -12354,9 +12433,9 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="224" ht="13.5" customHeight="1">
+    <row r="224" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>1532</v>
@@ -12386,9 +12465,9 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="225" ht="13.5" customHeight="1">
+    <row r="225" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>456.0</v>
+        <v>456</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1532</v>
@@ -12418,9 +12497,9 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="226" ht="13.5" customHeight="1">
+    <row r="226" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>457.0</v>
+        <v>457</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>1532</v>
@@ -12450,9 +12529,9 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="227" ht="13.5" customHeight="1">
+    <row r="227" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>458.0</v>
+        <v>458</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>1532</v>
@@ -12482,9 +12561,9 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="228" ht="13.5" customHeight="1">
+    <row r="228" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>1532</v>
@@ -12514,9 +12593,9 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="229" ht="13.5" customHeight="1">
+    <row r="229" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>1532</v>
@@ -12546,9 +12625,9 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="230" ht="13.5" customHeight="1">
+    <row r="230" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>1532</v>
@@ -12578,9 +12657,9 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="231" ht="13.5" customHeight="1">
+    <row r="231" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>462.0</v>
+        <v>462</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>1532</v>
@@ -12610,9 +12689,9 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="232" ht="13.5" customHeight="1">
+    <row r="232" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>463.0</v>
+        <v>463</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>1532</v>
@@ -12642,9 +12721,9 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="233" ht="13.5" customHeight="1">
+    <row r="233" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>1532</v>
@@ -12674,9 +12753,9 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="234" ht="13.5" customHeight="1">
+    <row r="234" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>1532</v>
@@ -12706,779 +12785,863 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
-    <row r="514" ht="13.5" customHeight="1"/>
-    <row r="515" ht="13.5" customHeight="1"/>
-    <row r="516" ht="13.5" customHeight="1"/>
-    <row r="517" ht="13.5" customHeight="1"/>
-    <row r="518" ht="13.5" customHeight="1"/>
-    <row r="519" ht="13.5" customHeight="1"/>
-    <row r="520" ht="13.5" customHeight="1"/>
-    <row r="521" ht="13.5" customHeight="1"/>
-    <row r="522" ht="13.5" customHeight="1"/>
-    <row r="523" ht="13.5" customHeight="1"/>
-    <row r="524" ht="13.5" customHeight="1"/>
-    <row r="525" ht="13.5" customHeight="1"/>
-    <row r="526" ht="13.5" customHeight="1"/>
-    <row r="527" ht="13.5" customHeight="1"/>
-    <row r="528" ht="13.5" customHeight="1"/>
-    <row r="529" ht="13.5" customHeight="1"/>
-    <row r="530" ht="13.5" customHeight="1"/>
-    <row r="531" ht="13.5" customHeight="1"/>
-    <row r="532" ht="13.5" customHeight="1"/>
-    <row r="533" ht="13.5" customHeight="1"/>
-    <row r="534" ht="13.5" customHeight="1"/>
-    <row r="535" ht="13.5" customHeight="1"/>
-    <row r="536" ht="13.5" customHeight="1"/>
-    <row r="537" ht="13.5" customHeight="1"/>
-    <row r="538" ht="13.5" customHeight="1"/>
-    <row r="539" ht="13.5" customHeight="1"/>
-    <row r="540" ht="13.5" customHeight="1"/>
-    <row r="541" ht="13.5" customHeight="1"/>
-    <row r="542" ht="13.5" customHeight="1"/>
-    <row r="543" ht="13.5" customHeight="1"/>
-    <row r="544" ht="13.5" customHeight="1"/>
-    <row r="545" ht="13.5" customHeight="1"/>
-    <row r="546" ht="13.5" customHeight="1"/>
-    <row r="547" ht="13.5" customHeight="1"/>
-    <row r="548" ht="13.5" customHeight="1"/>
-    <row r="549" ht="13.5" customHeight="1"/>
-    <row r="550" ht="13.5" customHeight="1"/>
-    <row r="551" ht="13.5" customHeight="1"/>
-    <row r="552" ht="13.5" customHeight="1"/>
-    <row r="553" ht="13.5" customHeight="1"/>
-    <row r="554" ht="13.5" customHeight="1"/>
-    <row r="555" ht="13.5" customHeight="1"/>
-    <row r="556" ht="13.5" customHeight="1"/>
-    <row r="557" ht="13.5" customHeight="1"/>
-    <row r="558" ht="13.5" customHeight="1"/>
-    <row r="559" ht="13.5" customHeight="1"/>
-    <row r="560" ht="13.5" customHeight="1"/>
-    <row r="561" ht="13.5" customHeight="1"/>
-    <row r="562" ht="13.5" customHeight="1"/>
-    <row r="563" ht="13.5" customHeight="1"/>
-    <row r="564" ht="13.5" customHeight="1"/>
-    <row r="565" ht="13.5" customHeight="1"/>
-    <row r="566" ht="13.5" customHeight="1"/>
-    <row r="567" ht="13.5" customHeight="1"/>
-    <row r="568" ht="13.5" customHeight="1"/>
-    <row r="569" ht="13.5" customHeight="1"/>
-    <row r="570" ht="13.5" customHeight="1"/>
-    <row r="571" ht="13.5" customHeight="1"/>
-    <row r="572" ht="13.5" customHeight="1"/>
-    <row r="573" ht="13.5" customHeight="1"/>
-    <row r="574" ht="13.5" customHeight="1"/>
-    <row r="575" ht="13.5" customHeight="1"/>
-    <row r="576" ht="13.5" customHeight="1"/>
-    <row r="577" ht="13.5" customHeight="1"/>
-    <row r="578" ht="13.5" customHeight="1"/>
-    <row r="579" ht="13.5" customHeight="1"/>
-    <row r="580" ht="13.5" customHeight="1"/>
-    <row r="581" ht="13.5" customHeight="1"/>
-    <row r="582" ht="13.5" customHeight="1"/>
-    <row r="583" ht="13.5" customHeight="1"/>
-    <row r="584" ht="13.5" customHeight="1"/>
-    <row r="585" ht="13.5" customHeight="1"/>
-    <row r="586" ht="13.5" customHeight="1"/>
-    <row r="587" ht="13.5" customHeight="1"/>
-    <row r="588" ht="13.5" customHeight="1"/>
-    <row r="589" ht="13.5" customHeight="1"/>
-    <row r="590" ht="13.5" customHeight="1"/>
-    <row r="591" ht="13.5" customHeight="1"/>
-    <row r="592" ht="13.5" customHeight="1"/>
-    <row r="593" ht="13.5" customHeight="1"/>
-    <row r="594" ht="13.5" customHeight="1"/>
-    <row r="595" ht="13.5" customHeight="1"/>
-    <row r="596" ht="13.5" customHeight="1"/>
-    <row r="597" ht="13.5" customHeight="1"/>
-    <row r="598" ht="13.5" customHeight="1"/>
-    <row r="599" ht="13.5" customHeight="1"/>
-    <row r="600" ht="13.5" customHeight="1"/>
-    <row r="601" ht="13.5" customHeight="1"/>
-    <row r="602" ht="13.5" customHeight="1"/>
-    <row r="603" ht="13.5" customHeight="1"/>
-    <row r="604" ht="13.5" customHeight="1"/>
-    <row r="605" ht="13.5" customHeight="1"/>
-    <row r="606" ht="13.5" customHeight="1"/>
-    <row r="607" ht="13.5" customHeight="1"/>
-    <row r="608" ht="13.5" customHeight="1"/>
-    <row r="609" ht="13.5" customHeight="1"/>
-    <row r="610" ht="13.5" customHeight="1"/>
-    <row r="611" ht="13.5" customHeight="1"/>
-    <row r="612" ht="13.5" customHeight="1"/>
-    <row r="613" ht="13.5" customHeight="1"/>
-    <row r="614" ht="13.5" customHeight="1"/>
-    <row r="615" ht="13.5" customHeight="1"/>
-    <row r="616" ht="13.5" customHeight="1"/>
-    <row r="617" ht="13.5" customHeight="1"/>
-    <row r="618" ht="13.5" customHeight="1"/>
-    <row r="619" ht="13.5" customHeight="1"/>
-    <row r="620" ht="13.5" customHeight="1"/>
-    <row r="621" ht="13.5" customHeight="1"/>
-    <row r="622" ht="13.5" customHeight="1"/>
-    <row r="623" ht="13.5" customHeight="1"/>
-    <row r="624" ht="13.5" customHeight="1"/>
-    <row r="625" ht="13.5" customHeight="1"/>
-    <row r="626" ht="13.5" customHeight="1"/>
-    <row r="627" ht="13.5" customHeight="1"/>
-    <row r="628" ht="13.5" customHeight="1"/>
-    <row r="629" ht="13.5" customHeight="1"/>
-    <row r="630" ht="13.5" customHeight="1"/>
-    <row r="631" ht="13.5" customHeight="1"/>
-    <row r="632" ht="13.5" customHeight="1"/>
-    <row r="633" ht="13.5" customHeight="1"/>
-    <row r="634" ht="13.5" customHeight="1"/>
-    <row r="635" ht="13.5" customHeight="1"/>
-    <row r="636" ht="13.5" customHeight="1"/>
-    <row r="637" ht="13.5" customHeight="1"/>
-    <row r="638" ht="13.5" customHeight="1"/>
-    <row r="639" ht="13.5" customHeight="1"/>
-    <row r="640" ht="13.5" customHeight="1"/>
-    <row r="641" ht="13.5" customHeight="1"/>
-    <row r="642" ht="13.5" customHeight="1"/>
-    <row r="643" ht="13.5" customHeight="1"/>
-    <row r="644" ht="13.5" customHeight="1"/>
-    <row r="645" ht="13.5" customHeight="1"/>
-    <row r="646" ht="13.5" customHeight="1"/>
-    <row r="647" ht="13.5" customHeight="1"/>
-    <row r="648" ht="13.5" customHeight="1"/>
-    <row r="649" ht="13.5" customHeight="1"/>
-    <row r="650" ht="13.5" customHeight="1"/>
-    <row r="651" ht="13.5" customHeight="1"/>
-    <row r="652" ht="13.5" customHeight="1"/>
-    <row r="653" ht="13.5" customHeight="1"/>
-    <row r="654" ht="13.5" customHeight="1"/>
-    <row r="655" ht="13.5" customHeight="1"/>
-    <row r="656" ht="13.5" customHeight="1"/>
-    <row r="657" ht="13.5" customHeight="1"/>
-    <row r="658" ht="13.5" customHeight="1"/>
-    <row r="659" ht="13.5" customHeight="1"/>
-    <row r="660" ht="13.5" customHeight="1"/>
-    <row r="661" ht="13.5" customHeight="1"/>
-    <row r="662" ht="13.5" customHeight="1"/>
-    <row r="663" ht="13.5" customHeight="1"/>
-    <row r="664" ht="13.5" customHeight="1"/>
-    <row r="665" ht="13.5" customHeight="1"/>
-    <row r="666" ht="13.5" customHeight="1"/>
-    <row r="667" ht="13.5" customHeight="1"/>
-    <row r="668" ht="13.5" customHeight="1"/>
-    <row r="669" ht="13.5" customHeight="1"/>
-    <row r="670" ht="13.5" customHeight="1"/>
-    <row r="671" ht="13.5" customHeight="1"/>
-    <row r="672" ht="13.5" customHeight="1"/>
-    <row r="673" ht="13.5" customHeight="1"/>
-    <row r="674" ht="13.5" customHeight="1"/>
-    <row r="675" ht="13.5" customHeight="1"/>
-    <row r="676" ht="13.5" customHeight="1"/>
-    <row r="677" ht="13.5" customHeight="1"/>
-    <row r="678" ht="13.5" customHeight="1"/>
-    <row r="679" ht="13.5" customHeight="1"/>
-    <row r="680" ht="13.5" customHeight="1"/>
-    <row r="681" ht="13.5" customHeight="1"/>
-    <row r="682" ht="13.5" customHeight="1"/>
-    <row r="683" ht="13.5" customHeight="1"/>
-    <row r="684" ht="13.5" customHeight="1"/>
-    <row r="685" ht="13.5" customHeight="1"/>
-    <row r="686" ht="13.5" customHeight="1"/>
-    <row r="687" ht="13.5" customHeight="1"/>
-    <row r="688" ht="13.5" customHeight="1"/>
-    <row r="689" ht="13.5" customHeight="1"/>
-    <row r="690" ht="13.5" customHeight="1"/>
-    <row r="691" ht="13.5" customHeight="1"/>
-    <row r="692" ht="13.5" customHeight="1"/>
-    <row r="693" ht="13.5" customHeight="1"/>
-    <row r="694" ht="13.5" customHeight="1"/>
-    <row r="695" ht="13.5" customHeight="1"/>
-    <row r="696" ht="13.5" customHeight="1"/>
-    <row r="697" ht="13.5" customHeight="1"/>
-    <row r="698" ht="13.5" customHeight="1"/>
-    <row r="699" ht="13.5" customHeight="1"/>
-    <row r="700" ht="13.5" customHeight="1"/>
-    <row r="701" ht="13.5" customHeight="1"/>
-    <row r="702" ht="13.5" customHeight="1"/>
-    <row r="703" ht="13.5" customHeight="1"/>
-    <row r="704" ht="13.5" customHeight="1"/>
-    <row r="705" ht="13.5" customHeight="1"/>
-    <row r="706" ht="13.5" customHeight="1"/>
-    <row r="707" ht="13.5" customHeight="1"/>
-    <row r="708" ht="13.5" customHeight="1"/>
-    <row r="709" ht="13.5" customHeight="1"/>
-    <row r="710" ht="13.5" customHeight="1"/>
-    <row r="711" ht="13.5" customHeight="1"/>
-    <row r="712" ht="13.5" customHeight="1"/>
-    <row r="713" ht="13.5" customHeight="1"/>
-    <row r="714" ht="13.5" customHeight="1"/>
-    <row r="715" ht="13.5" customHeight="1"/>
-    <row r="716" ht="13.5" customHeight="1"/>
-    <row r="717" ht="13.5" customHeight="1"/>
-    <row r="718" ht="13.5" customHeight="1"/>
-    <row r="719" ht="13.5" customHeight="1"/>
-    <row r="720" ht="13.5" customHeight="1"/>
-    <row r="721" ht="13.5" customHeight="1"/>
-    <row r="722" ht="13.5" customHeight="1"/>
-    <row r="723" ht="13.5" customHeight="1"/>
-    <row r="724" ht="13.5" customHeight="1"/>
-    <row r="725" ht="13.5" customHeight="1"/>
-    <row r="726" ht="13.5" customHeight="1"/>
-    <row r="727" ht="13.5" customHeight="1"/>
-    <row r="728" ht="13.5" customHeight="1"/>
-    <row r="729" ht="13.5" customHeight="1"/>
-    <row r="730" ht="13.5" customHeight="1"/>
-    <row r="731" ht="13.5" customHeight="1"/>
-    <row r="732" ht="13.5" customHeight="1"/>
-    <row r="733" ht="13.5" customHeight="1"/>
-    <row r="734" ht="13.5" customHeight="1"/>
-    <row r="735" ht="13.5" customHeight="1"/>
-    <row r="736" ht="13.5" customHeight="1"/>
-    <row r="737" ht="13.5" customHeight="1"/>
-    <row r="738" ht="13.5" customHeight="1"/>
-    <row r="739" ht="13.5" customHeight="1"/>
-    <row r="740" ht="13.5" customHeight="1"/>
-    <row r="741" ht="13.5" customHeight="1"/>
-    <row r="742" ht="13.5" customHeight="1"/>
-    <row r="743" ht="13.5" customHeight="1"/>
-    <row r="744" ht="13.5" customHeight="1"/>
-    <row r="745" ht="13.5" customHeight="1"/>
-    <row r="746" ht="13.5" customHeight="1"/>
-    <row r="747" ht="13.5" customHeight="1"/>
-    <row r="748" ht="13.5" customHeight="1"/>
-    <row r="749" ht="13.5" customHeight="1"/>
-    <row r="750" ht="13.5" customHeight="1"/>
-    <row r="751" ht="13.5" customHeight="1"/>
-    <row r="752" ht="13.5" customHeight="1"/>
-    <row r="753" ht="13.5" customHeight="1"/>
-    <row r="754" ht="13.5" customHeight="1"/>
-    <row r="755" ht="13.5" customHeight="1"/>
-    <row r="756" ht="13.5" customHeight="1"/>
-    <row r="757" ht="13.5" customHeight="1"/>
-    <row r="758" ht="13.5" customHeight="1"/>
-    <row r="759" ht="13.5" customHeight="1"/>
-    <row r="760" ht="13.5" customHeight="1"/>
-    <row r="761" ht="13.5" customHeight="1"/>
-    <row r="762" ht="13.5" customHeight="1"/>
-    <row r="763" ht="13.5" customHeight="1"/>
-    <row r="764" ht="13.5" customHeight="1"/>
-    <row r="765" ht="13.5" customHeight="1"/>
-    <row r="766" ht="13.5" customHeight="1"/>
-    <row r="767" ht="13.5" customHeight="1"/>
-    <row r="768" ht="13.5" customHeight="1"/>
-    <row r="769" ht="13.5" customHeight="1"/>
-    <row r="770" ht="13.5" customHeight="1"/>
-    <row r="771" ht="13.5" customHeight="1"/>
-    <row r="772" ht="13.5" customHeight="1"/>
-    <row r="773" ht="13.5" customHeight="1"/>
-    <row r="774" ht="13.5" customHeight="1"/>
-    <row r="775" ht="13.5" customHeight="1"/>
-    <row r="776" ht="13.5" customHeight="1"/>
-    <row r="777" ht="13.5" customHeight="1"/>
-    <row r="778" ht="13.5" customHeight="1"/>
-    <row r="779" ht="13.5" customHeight="1"/>
-    <row r="780" ht="13.5" customHeight="1"/>
-    <row r="781" ht="13.5" customHeight="1"/>
-    <row r="782" ht="13.5" customHeight="1"/>
-    <row r="783" ht="13.5" customHeight="1"/>
-    <row r="784" ht="13.5" customHeight="1"/>
-    <row r="785" ht="13.5" customHeight="1"/>
-    <row r="786" ht="13.5" customHeight="1"/>
-    <row r="787" ht="13.5" customHeight="1"/>
-    <row r="788" ht="13.5" customHeight="1"/>
-    <row r="789" ht="13.5" customHeight="1"/>
-    <row r="790" ht="13.5" customHeight="1"/>
-    <row r="791" ht="13.5" customHeight="1"/>
-    <row r="792" ht="13.5" customHeight="1"/>
-    <row r="793" ht="13.5" customHeight="1"/>
-    <row r="794" ht="13.5" customHeight="1"/>
-    <row r="795" ht="13.5" customHeight="1"/>
-    <row r="796" ht="13.5" customHeight="1"/>
-    <row r="797" ht="13.5" customHeight="1"/>
-    <row r="798" ht="13.5" customHeight="1"/>
-    <row r="799" ht="13.5" customHeight="1"/>
-    <row r="800" ht="13.5" customHeight="1"/>
-    <row r="801" ht="13.5" customHeight="1"/>
-    <row r="802" ht="13.5" customHeight="1"/>
-    <row r="803" ht="13.5" customHeight="1"/>
-    <row r="804" ht="13.5" customHeight="1"/>
-    <row r="805" ht="13.5" customHeight="1"/>
-    <row r="806" ht="13.5" customHeight="1"/>
-    <row r="807" ht="13.5" customHeight="1"/>
-    <row r="808" ht="13.5" customHeight="1"/>
-    <row r="809" ht="13.5" customHeight="1"/>
-    <row r="810" ht="13.5" customHeight="1"/>
-    <row r="811" ht="13.5" customHeight="1"/>
-    <row r="812" ht="13.5" customHeight="1"/>
-    <row r="813" ht="13.5" customHeight="1"/>
-    <row r="814" ht="13.5" customHeight="1"/>
-    <row r="815" ht="13.5" customHeight="1"/>
-    <row r="816" ht="13.5" customHeight="1"/>
-    <row r="817" ht="13.5" customHeight="1"/>
-    <row r="818" ht="13.5" customHeight="1"/>
-    <row r="819" ht="13.5" customHeight="1"/>
-    <row r="820" ht="13.5" customHeight="1"/>
-    <row r="821" ht="13.5" customHeight="1"/>
-    <row r="822" ht="13.5" customHeight="1"/>
-    <row r="823" ht="13.5" customHeight="1"/>
-    <row r="824" ht="13.5" customHeight="1"/>
-    <row r="825" ht="13.5" customHeight="1"/>
-    <row r="826" ht="13.5" customHeight="1"/>
-    <row r="827" ht="13.5" customHeight="1"/>
-    <row r="828" ht="13.5" customHeight="1"/>
-    <row r="829" ht="13.5" customHeight="1"/>
-    <row r="830" ht="13.5" customHeight="1"/>
-    <row r="831" ht="13.5" customHeight="1"/>
-    <row r="832" ht="13.5" customHeight="1"/>
-    <row r="833" ht="13.5" customHeight="1"/>
-    <row r="834" ht="13.5" customHeight="1"/>
-    <row r="835" ht="13.5" customHeight="1"/>
-    <row r="836" ht="13.5" customHeight="1"/>
-    <row r="837" ht="13.5" customHeight="1"/>
-    <row r="838" ht="13.5" customHeight="1"/>
-    <row r="839" ht="13.5" customHeight="1"/>
-    <row r="840" ht="13.5" customHeight="1"/>
-    <row r="841" ht="13.5" customHeight="1"/>
-    <row r="842" ht="13.5" customHeight="1"/>
-    <row r="843" ht="13.5" customHeight="1"/>
-    <row r="844" ht="13.5" customHeight="1"/>
-    <row r="845" ht="13.5" customHeight="1"/>
-    <row r="846" ht="13.5" customHeight="1"/>
-    <row r="847" ht="13.5" customHeight="1"/>
-    <row r="848" ht="13.5" customHeight="1"/>
-    <row r="849" ht="13.5" customHeight="1"/>
-    <row r="850" ht="13.5" customHeight="1"/>
-    <row r="851" ht="13.5" customHeight="1"/>
-    <row r="852" ht="13.5" customHeight="1"/>
-    <row r="853" ht="13.5" customHeight="1"/>
-    <row r="854" ht="13.5" customHeight="1"/>
-    <row r="855" ht="13.5" customHeight="1"/>
-    <row r="856" ht="13.5" customHeight="1"/>
-    <row r="857" ht="13.5" customHeight="1"/>
-    <row r="858" ht="13.5" customHeight="1"/>
-    <row r="859" ht="13.5" customHeight="1"/>
-    <row r="860" ht="13.5" customHeight="1"/>
-    <row r="861" ht="13.5" customHeight="1"/>
-    <row r="862" ht="13.5" customHeight="1"/>
-    <row r="863" ht="13.5" customHeight="1"/>
-    <row r="864" ht="13.5" customHeight="1"/>
-    <row r="865" ht="13.5" customHeight="1"/>
-    <row r="866" ht="13.5" customHeight="1"/>
-    <row r="867" ht="13.5" customHeight="1"/>
-    <row r="868" ht="13.5" customHeight="1"/>
-    <row r="869" ht="13.5" customHeight="1"/>
-    <row r="870" ht="13.5" customHeight="1"/>
-    <row r="871" ht="13.5" customHeight="1"/>
-    <row r="872" ht="13.5" customHeight="1"/>
-    <row r="873" ht="13.5" customHeight="1"/>
-    <row r="874" ht="13.5" customHeight="1"/>
-    <row r="875" ht="13.5" customHeight="1"/>
-    <row r="876" ht="13.5" customHeight="1"/>
-    <row r="877" ht="13.5" customHeight="1"/>
-    <row r="878" ht="13.5" customHeight="1"/>
-    <row r="879" ht="13.5" customHeight="1"/>
-    <row r="880" ht="13.5" customHeight="1"/>
-    <row r="881" ht="13.5" customHeight="1"/>
-    <row r="882" ht="13.5" customHeight="1"/>
-    <row r="883" ht="13.5" customHeight="1"/>
-    <row r="884" ht="13.5" customHeight="1"/>
-    <row r="885" ht="13.5" customHeight="1"/>
-    <row r="886" ht="13.5" customHeight="1"/>
-    <row r="887" ht="13.5" customHeight="1"/>
-    <row r="888" ht="13.5" customHeight="1"/>
-    <row r="889" ht="13.5" customHeight="1"/>
-    <row r="890" ht="13.5" customHeight="1"/>
-    <row r="891" ht="13.5" customHeight="1"/>
-    <row r="892" ht="13.5" customHeight="1"/>
-    <row r="893" ht="13.5" customHeight="1"/>
-    <row r="894" ht="13.5" customHeight="1"/>
-    <row r="895" ht="13.5" customHeight="1"/>
-    <row r="896" ht="13.5" customHeight="1"/>
-    <row r="897" ht="13.5" customHeight="1"/>
-    <row r="898" ht="13.5" customHeight="1"/>
-    <row r="899" ht="13.5" customHeight="1"/>
-    <row r="900" ht="13.5" customHeight="1"/>
-    <row r="901" ht="13.5" customHeight="1"/>
-    <row r="902" ht="13.5" customHeight="1"/>
-    <row r="903" ht="13.5" customHeight="1"/>
-    <row r="904" ht="13.5" customHeight="1"/>
-    <row r="905" ht="13.5" customHeight="1"/>
-    <row r="906" ht="13.5" customHeight="1"/>
-    <row r="907" ht="13.5" customHeight="1"/>
-    <row r="908" ht="13.5" customHeight="1"/>
-    <row r="909" ht="13.5" customHeight="1"/>
-    <row r="910" ht="13.5" customHeight="1"/>
-    <row r="911" ht="13.5" customHeight="1"/>
-    <row r="912" ht="13.5" customHeight="1"/>
-    <row r="913" ht="13.5" customHeight="1"/>
-    <row r="914" ht="13.5" customHeight="1"/>
-    <row r="915" ht="13.5" customHeight="1"/>
-    <row r="916" ht="13.5" customHeight="1"/>
-    <row r="917" ht="13.5" customHeight="1"/>
-    <row r="918" ht="13.5" customHeight="1"/>
-    <row r="919" ht="13.5" customHeight="1"/>
-    <row r="920" ht="13.5" customHeight="1"/>
-    <row r="921" ht="13.5" customHeight="1"/>
-    <row r="922" ht="13.5" customHeight="1"/>
-    <row r="923" ht="13.5" customHeight="1"/>
-    <row r="924" ht="13.5" customHeight="1"/>
-    <row r="925" ht="13.5" customHeight="1"/>
-    <row r="926" ht="13.5" customHeight="1"/>
-    <row r="927" ht="13.5" customHeight="1"/>
-    <row r="928" ht="13.5" customHeight="1"/>
-    <row r="929" ht="13.5" customHeight="1"/>
-    <row r="930" ht="13.5" customHeight="1"/>
-    <row r="931" ht="13.5" customHeight="1"/>
-    <row r="932" ht="13.5" customHeight="1"/>
-    <row r="933" ht="13.5" customHeight="1"/>
-    <row r="934" ht="13.5" customHeight="1"/>
-    <row r="935" ht="13.5" customHeight="1"/>
-    <row r="936" ht="13.5" customHeight="1"/>
-    <row r="937" ht="13.5" customHeight="1"/>
-    <row r="938" ht="13.5" customHeight="1"/>
-    <row r="939" ht="13.5" customHeight="1"/>
-    <row r="940" ht="13.5" customHeight="1"/>
-    <row r="941" ht="13.5" customHeight="1"/>
-    <row r="942" ht="13.5" customHeight="1"/>
-    <row r="943" ht="13.5" customHeight="1"/>
-    <row r="944" ht="13.5" customHeight="1"/>
-    <row r="945" ht="13.5" customHeight="1"/>
-    <row r="946" ht="13.5" customHeight="1"/>
-    <row r="947" ht="13.5" customHeight="1"/>
-    <row r="948" ht="13.5" customHeight="1"/>
-    <row r="949" ht="13.5" customHeight="1"/>
-    <row r="950" ht="13.5" customHeight="1"/>
-    <row r="951" ht="13.5" customHeight="1"/>
-    <row r="952" ht="13.5" customHeight="1"/>
-    <row r="953" ht="13.5" customHeight="1"/>
-    <row r="954" ht="13.5" customHeight="1"/>
-    <row r="955" ht="13.5" customHeight="1"/>
-    <row r="956" ht="13.5" customHeight="1"/>
-    <row r="957" ht="13.5" customHeight="1"/>
-    <row r="958" ht="13.5" customHeight="1"/>
-    <row r="959" ht="13.5" customHeight="1"/>
-    <row r="960" ht="13.5" customHeight="1"/>
-    <row r="961" ht="13.5" customHeight="1"/>
-    <row r="962" ht="13.5" customHeight="1"/>
-    <row r="963" ht="13.5" customHeight="1"/>
-    <row r="964" ht="13.5" customHeight="1"/>
-    <row r="965" ht="13.5" customHeight="1"/>
-    <row r="966" ht="13.5" customHeight="1"/>
-    <row r="967" ht="13.5" customHeight="1"/>
-    <row r="968" ht="13.5" customHeight="1"/>
-    <row r="969" ht="13.5" customHeight="1"/>
-    <row r="970" ht="13.5" customHeight="1"/>
-    <row r="971" ht="13.5" customHeight="1"/>
-    <row r="972" ht="13.5" customHeight="1"/>
-    <row r="973" ht="13.5" customHeight="1"/>
-    <row r="974" ht="13.5" customHeight="1"/>
-    <row r="975" ht="13.5" customHeight="1"/>
-    <row r="976" ht="13.5" customHeight="1"/>
-    <row r="977" ht="13.5" customHeight="1"/>
-    <row r="978" ht="13.5" customHeight="1"/>
-    <row r="979" ht="13.5" customHeight="1"/>
-    <row r="980" ht="13.5" customHeight="1"/>
-    <row r="981" ht="13.5" customHeight="1"/>
-    <row r="982" ht="13.5" customHeight="1"/>
-    <row r="983" ht="13.5" customHeight="1"/>
-    <row r="984" ht="13.5" customHeight="1"/>
-    <row r="985" ht="13.5" customHeight="1"/>
-    <row r="986" ht="13.5" customHeight="1"/>
-    <row r="987" ht="13.5" customHeight="1"/>
-    <row r="988" ht="13.5" customHeight="1"/>
-    <row r="989" ht="13.5" customHeight="1"/>
-    <row r="990" ht="13.5" customHeight="1"/>
-    <row r="991" ht="13.5" customHeight="1"/>
-    <row r="992" ht="13.5" customHeight="1"/>
-    <row r="993" ht="13.5" customHeight="1"/>
-    <row r="994" ht="13.5" customHeight="1"/>
-    <row r="995" ht="13.5" customHeight="1"/>
-    <row r="996" ht="13.5" customHeight="1"/>
-    <row r="997" ht="13.5" customHeight="1"/>
-    <row r="998" ht="13.5" customHeight="1"/>
-    <row r="999" ht="13.5" customHeight="1"/>
-    <row r="1000" ht="13.5" customHeight="1"/>
+    <row r="235" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J236" s="4" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J237" s="4" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J238" s="4" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>10005</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J4"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J238" r:id="rId2" xr:uid="{B4FDCD50-8461-FF44-8EA1-CD56999D3D72}"/>
+    <hyperlink ref="J239" r:id="rId3" xr:uid="{E0A4EE59-B930-484F-AFDA-32BBD89E4E9F}"/>
+    <hyperlink ref="J237" r:id="rId4" xr:uid="{0124D88D-6C9B-0F47-B7E1-E105C22C824E}"/>
+    <hyperlink ref="J235" r:id="rId5" xr:uid="{2C4876DE-4DA4-5B40-AE55-CCE3E2898DFC}"/>
+    <hyperlink ref="J236" r:id="rId6" xr:uid="{499D9B14-2B68-384B-888F-A8BA5AA467E1}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/bgm_combined_results_df_250203_part1.xlsx
+++ b/data/bgm_combined_results_df_250203_part1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiyuantao/Desktop/Mac科研/experiment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15820983-0FAD-654A-A0F6-5EAED505CF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0F5C85-B2B3-4F46-BD6F-728217793635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8260" yWindow="1020" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bgm_combined_results_df_250203_" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1656">
   <si>
     <t>sid</t>
   </si>
@@ -4993,6 +4993,10 @@
   </si>
   <si>
     <t>[30]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5000,7 +5004,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5034,6 +5038,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5056,7 +5067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5068,6 +5079,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5288,13 +5302,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="J239" sqref="J239"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12870,23 +12886,80 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>20001</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>30001</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>40001</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13640,6 +13713,9 @@
     <hyperlink ref="J237" r:id="rId4" xr:uid="{0124D88D-6C9B-0F47-B7E1-E105C22C824E}"/>
     <hyperlink ref="J235" r:id="rId5" xr:uid="{2C4876DE-4DA4-5B40-AE55-CCE3E2898DFC}"/>
     <hyperlink ref="J236" r:id="rId6" xr:uid="{499D9B14-2B68-384B-888F-A8BA5AA467E1}"/>
+    <hyperlink ref="J240" r:id="rId7" xr:uid="{E5275627-327E-DB4B-9405-637062D0836F}"/>
+    <hyperlink ref="J241" r:id="rId8" xr:uid="{11300CA1-5B8C-B541-95C9-54A7662DC38B}"/>
+    <hyperlink ref="J242" r:id="rId9" xr:uid="{587130D8-6BD5-5242-B227-9FAA318DF5BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
